--- a/Demo/TestProject/templates/ZephyrData.xlsx
+++ b/Demo/TestProject/templates/ZephyrData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
   <si>
     <t>VesionId</t>
   </si>
@@ -42,6 +42,57 @@
   </si>
   <si>
     <t>0001516263942041-242ac112-0001</t>
+  </si>
+  <si>
+    <t>10009</t>
+  </si>
+  <si>
+    <t>0001516280249069-242ac112-0001</t>
+  </si>
+  <si>
+    <t>10010</t>
+  </si>
+  <si>
+    <t>0001516283393411-242ac112-0001</t>
+  </si>
+  <si>
+    <t>10011</t>
+  </si>
+  <si>
+    <t>0001516343427970-242ac112-0001</t>
+  </si>
+  <si>
+    <t>10012</t>
+  </si>
+  <si>
+    <t>0001516344012081-242ac112-0001</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>10013</t>
+  </si>
+  <si>
+    <t>VersionId</t>
+  </si>
+  <si>
+    <t>10014</t>
+  </si>
+  <si>
+    <t>0001516354177349-242ac112-0001</t>
+  </si>
+  <si>
+    <t>10016</t>
+  </si>
+  <si>
+    <t>0001516682169217-242ac112-0001</t>
+  </si>
+  <si>
+    <t>10017</t>
+  </si>
+  <si>
+    <t>0001516688422655-242ac112-0001</t>
   </si>
 </sst>
 </file>
@@ -51,13 +102,121 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -80,7 +239,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -91,14 +250,59 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="4" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="6" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="8" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="10" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="11" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="12" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="13" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="14" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="15" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="16" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="17" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="18" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -382,14 +586,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.8125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="8.24609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="32.96484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -400,13 +604,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B2" t="n">
         <v>10000.0</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
